--- a/Daily/Ljung_Box/First Difference/toyota.xlsx
+++ b/Daily/Ljung_Box/First Difference/toyota.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.000509059549289827</v>
+        <v>0.1079654077702819</v>
+      </c>
+      <c r="C2">
+        <v>0.7424724868382648</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.2292292805605209</v>
+        <v>1.13463900333109</v>
+      </c>
+      <c r="C3">
+        <v>0.567043362182882</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.027247136762998</v>
+        <v>1.835392495189561</v>
       </c>
       <c r="C4">
-        <v>0.01408668587691598</v>
+        <v>0.6072635840757519</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.182922158681032</v>
+        <v>2.052034856604784</v>
       </c>
       <c r="C5">
-        <v>0.02755803651630076</v>
+        <v>0.7261886712304053</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.375437385084531</v>
+        <v>2.283378156101891</v>
       </c>
       <c r="C6">
-        <v>0.06084687446913254</v>
+        <v>0.8087050528013213</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7.917774849733493</v>
+        <v>2.764561154008327</v>
       </c>
       <c r="C7">
-        <v>0.0946370700400057</v>
+        <v>0.8377634557390374</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>8.846170523667096</v>
+        <v>2.768275389104033</v>
       </c>
       <c r="C8">
-        <v>0.1153594617186695</v>
+        <v>0.9055794738419657</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.03144819863505</v>
+        <v>2.81021129792154</v>
       </c>
       <c r="C9">
-        <v>0.1233338996354689</v>
+        <v>0.9456972704630119</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10.83054626023642</v>
+        <v>3.50048801435046</v>
       </c>
       <c r="C10">
-        <v>0.1461832083402327</v>
+        <v>0.9411185619092931</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>16.94224300691642</v>
+        <v>11.02490645021537</v>
       </c>
       <c r="C11">
-        <v>0.03071614922293104</v>
+        <v>0.3555808538720127</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>23.80708347271549</v>
+        <v>15.21368599481069</v>
       </c>
       <c r="C12">
-        <v>0.004616956647049123</v>
+        <v>0.1729218096954329</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.14007039377091</v>
+        <v>15.94825781480869</v>
       </c>
       <c r="C13">
-        <v>0.001714326670581916</v>
+        <v>0.1936174612373072</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>28.20624787511309</v>
+        <v>16.02875853246979</v>
       </c>
       <c r="C14">
-        <v>0.003009922423690658</v>
+        <v>0.2475803936667515</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28.23538958584645</v>
+        <v>16.49639128291531</v>
       </c>
       <c r="C15">
-        <v>0.005109631649498796</v>
+        <v>0.2840088387241347</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>29.31907909430757</v>
+        <v>17.89212336359049</v>
       </c>
       <c r="C16">
-        <v>0.005896502200216595</v>
+        <v>0.2683794404698425</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30.04837324391728</v>
+        <v>17.92639194457182</v>
       </c>
       <c r="C17">
-        <v>0.00751569472242028</v>
+        <v>0.3282248992227975</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>30.3495177843899</v>
+        <v>18.02711504729074</v>
       </c>
       <c r="C18">
-        <v>0.01072173739839157</v>
+        <v>0.387132189750418</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>30.38282265292283</v>
+        <v>18.39343221136961</v>
       </c>
       <c r="C19">
-        <v>0.01611550703709925</v>
+        <v>0.4300314071955787</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>30.76445189680462</v>
+        <v>18.72893102434168</v>
       </c>
       <c r="C20">
-        <v>0.02133063311208168</v>
+        <v>0.4743452728403116</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>30.76927535340461</v>
+        <v>19.33373653115245</v>
       </c>
       <c r="C21">
-        <v>0.03060595152988758</v>
+        <v>0.5002375897887495</v>
       </c>
     </row>
   </sheetData>
